--- a/Lista libros SOS.xlsx
+++ b/Lista libros SOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Libros Ventas y Compras\Libro Ventas y Compras SOS_Windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\IVA-Compras-y-Ventas-PDF-y-TXT-de-LID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BFC27E-A4BA-4FF6-A6EA-5A77CE4E2271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528B14ED-422A-481B-AE0C-E551DE0D7506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,8 +460,8 @@
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,8 +567,8 @@
         <v>25</v>
       </c>
       <c r="L2" s="4" t="str">
-        <f>K2&amp;"\Libros Compras y Ventas\"&amp;YEAR(E2)&amp;"\"&amp;TEXT(MONTH(E2),"00")&amp;"\"</f>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\Libros Compras y Ventas\2022\09\</v>
+        <f>K2&amp;"\Libros Compras y Ventas\"&amp;B2&amp;YEAR(E2)&amp;"\"&amp;TEXT(MONTH(E2),"00")&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\Libros Compras y Ventas\XXXXXX - 92022\09\</v>
       </c>
       <c r="M2" s="4" t="str">
         <f t="shared" ref="M2:M33" si="1">TEXT(N2+30,"mm/aaaa")</f>
@@ -617,8 +617,8 @@
         <v>16</v>
       </c>
       <c r="L3" s="4" t="str">
-        <f t="shared" ref="L3:L66" si="5">K3&amp;"\Libros Compras y Ventas\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\"</f>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <f t="shared" ref="L3:L66" si="5">K3&amp;"\Libros Compras y Ventas\"&amp;B3&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\"</f>
+        <v>\Libros Compras y Ventas\XXXXXX - 92022\09\</v>
       </c>
       <c r="M3" s="4" t="str">
         <f t="shared" si="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="L4" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 92022\09\</v>
       </c>
       <c r="M4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -717,7 +717,7 @@
       </c>
       <c r="L5" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M5" s="4" t="str">
         <f t="shared" si="1"/>
@@ -766,7 +766,7 @@
       </c>
       <c r="L6" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M6" s="4" t="str">
         <f t="shared" si="1"/>
@@ -815,7 +815,7 @@
       </c>
       <c r="L7" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M7" s="4" t="str">
         <f t="shared" si="1"/>
@@ -864,7 +864,7 @@
       </c>
       <c r="L8" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M8" s="4" t="str">
         <f t="shared" si="1"/>
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M9" s="4" t="str">
         <f t="shared" si="1"/>
@@ -962,7 +962,7 @@
       </c>
       <c r="L10" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M10" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="L11" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M11" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="L12" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M12" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="L13" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M13" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="L14" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M14" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="L15" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="L16" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M16" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="L17" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\07\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\07\</v>
       </c>
       <c r="M17" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="L18" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M18" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="L19" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M19" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="L20" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\07\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\07\</v>
       </c>
       <c r="M20" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="L21" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M21" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="L22" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M22" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="L23" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M23" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="L24" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="L25" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="L26" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="L27" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="L28" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M28" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="L29" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M29" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="L30" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="L31" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M31" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="L32" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="L33" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M33" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="L34" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M34" s="4" t="str">
         <f t="shared" ref="M34:M65" si="9">TEXT(N34+30,"mm/aaaa")</f>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="L35" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M35" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="L36" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M36" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="L37" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M37" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="L38" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M38" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="L39" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M39" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="L40" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M40" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="L41" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M41" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="L42" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M42" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="L43" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M43" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="L44" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M44" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="L45" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M45" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="L46" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\07\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\07\</v>
       </c>
       <c r="M46" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="L47" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M47" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="L48" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M48" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="L49" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M49" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="L50" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M50" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="L51" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M51" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="L52" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M52" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="L53" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M53" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="L54" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M54" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="L55" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M55" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="L56" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M56" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="L57" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M57" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="L58" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M58" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="L59" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M59" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="L60" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M60" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="L61" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M61" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="L62" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M62" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="L63" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M63" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="L64" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M64" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="L65" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M65" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="L66" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M66" s="4" t="str">
         <f t="shared" ref="M66:M69" si="12">TEXT(N66+30,"mm/aaaa")</f>
@@ -3769,8 +3769,8 @@
         <v>16</v>
       </c>
       <c r="L67" s="4" t="str">
-        <f t="shared" ref="L67:L69" si="14">K67&amp;"\Libros Compras y Ventas\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <f t="shared" ref="L67:L69" si="14">K67&amp;"\Libros Compras y Ventas\"&amp;B67&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M67" s="4" t="str">
         <f t="shared" si="12"/>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="L68" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M68" s="4" t="str">
         <f t="shared" si="12"/>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="L69" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>\Libros Compras y Ventas\2022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
       </c>
       <c r="M69" s="4" t="str">
         <f t="shared" si="12"/>

--- a/Lista libros SOS.xlsx
+++ b/Lista libros SOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\IVA-Compras-y-Ventas-PDF-y-TXT-de-LID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528B14ED-422A-481B-AE0C-E551DE0D7506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE0BB82-233B-4763-BE34-D87DA77E691A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,8 +460,8 @@
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,8 +567,8 @@
         <v>25</v>
       </c>
       <c r="L2" s="4" t="str">
-        <f>K2&amp;"\Libros Compras y Ventas\"&amp;B2&amp;YEAR(E2)&amp;"\"&amp;TEXT(MONTH(E2),"00")&amp;"\"</f>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\Libros Compras y Ventas\XXXXXX - 92022\09\</v>
+        <f>K2&amp;"\Libros Compras y Ventas\"&amp;B2&amp;"\"&amp;YEAR(E2)&amp;"\"&amp;TEXT(MONTH(E2),"00")&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\Libros Compras y Ventas\XXXXXX - 9\2022\09\</v>
       </c>
       <c r="M2" s="4" t="str">
         <f t="shared" ref="M2:M33" si="1">TEXT(N2+30,"mm/aaaa")</f>
@@ -617,8 +617,8 @@
         <v>16</v>
       </c>
       <c r="L3" s="4" t="str">
-        <f t="shared" ref="L3:L66" si="5">K3&amp;"\Libros Compras y Ventas\"&amp;B3&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\"</f>
-        <v>\Libros Compras y Ventas\XXXXXX - 92022\09\</v>
+        <f t="shared" ref="L3:L66" si="5">K3&amp;"\Libros Compras y Ventas\"&amp;B3&amp;"\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\"</f>
+        <v>\Libros Compras y Ventas\XXXXXX - 9\2022\09\</v>
       </c>
       <c r="M3" s="4" t="str">
         <f t="shared" si="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="L4" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 92022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 9\2022\09\</v>
       </c>
       <c r="M4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -717,7 +717,7 @@
       </c>
       <c r="L5" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M5" s="4" t="str">
         <f t="shared" si="1"/>
@@ -766,7 +766,7 @@
       </c>
       <c r="L6" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M6" s="4" t="str">
         <f t="shared" si="1"/>
@@ -815,7 +815,7 @@
       </c>
       <c r="L7" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M7" s="4" t="str">
         <f t="shared" si="1"/>
@@ -864,7 +864,7 @@
       </c>
       <c r="L8" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M8" s="4" t="str">
         <f t="shared" si="1"/>
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M9" s="4" t="str">
         <f t="shared" si="1"/>
@@ -962,7 +962,7 @@
       </c>
       <c r="L10" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M10" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="L11" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M11" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="L12" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M12" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="L13" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M13" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="L14" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M14" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="L15" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="L16" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M16" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="L17" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\07\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\</v>
       </c>
       <c r="M17" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="L18" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M18" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="L19" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M19" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="L20" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\07\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\</v>
       </c>
       <c r="M20" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="L21" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M21" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="L22" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M22" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="L23" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M23" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="L24" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="L25" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="L26" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="L27" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="L28" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M28" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="L29" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M29" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="L30" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="L31" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M31" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="L32" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="L33" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M33" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="L34" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M34" s="4" t="str">
         <f t="shared" ref="M34:M65" si="9">TEXT(N34+30,"mm/aaaa")</f>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="L35" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M35" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="L36" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M36" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="L37" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M37" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="L38" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M38" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="L39" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M39" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="L40" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M40" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="L41" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M41" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="L42" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M42" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="L43" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M43" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="L44" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M44" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="L45" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M45" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="L46" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\07\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\</v>
       </c>
       <c r="M46" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="L47" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M47" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="L48" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M48" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="L49" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M49" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="L50" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M50" s="4" t="str">
         <f t="shared" si="9"/>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="L51" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M51" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="L52" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M52" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="L53" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M53" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="L54" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M54" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="L55" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M55" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="L56" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M56" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="L57" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M57" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="L58" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M58" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="L59" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M59" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="L60" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M60" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="L61" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M61" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="L62" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M62" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="L63" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M63" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="L64" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M64" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="L65" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M65" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="L66" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M66" s="4" t="str">
         <f t="shared" ref="M66:M69" si="12">TEXT(N66+30,"mm/aaaa")</f>
@@ -3769,8 +3769,8 @@
         <v>16</v>
       </c>
       <c r="L67" s="4" t="str">
-        <f t="shared" ref="L67:L69" si="14">K67&amp;"\Libros Compras y Ventas\"&amp;B67&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <f t="shared" ref="L67:L69" si="14">K67&amp;"\Libros Compras y Ventas\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M67" s="4" t="str">
         <f t="shared" si="12"/>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="L68" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M68" s="4" t="str">
         <f t="shared" si="12"/>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="L69" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 02022\09\</v>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M69" s="4" t="str">
         <f t="shared" si="12"/>

--- a/Lista libros SOS.xlsx
+++ b/Lista libros SOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\IVA-Compras-y-Ventas-PDF-y-TXT-de-LID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE0BB82-233B-4763-BE34-D87DA77E691A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7868D4A1-5A30-4656-8031-E4AD9A119764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Listado" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$Q$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$R$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="27">
   <si>
     <t>Nro</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>C:\Users\Agustin Bustos\Desktop\Clientes</t>
+  </si>
+  <si>
+    <t>PER</t>
   </si>
 </sst>
 </file>
@@ -457,11 +460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,12 +480,12 @@
     <col min="10" max="10" width="18.28515625" hidden="1" customWidth="1"/>
     <col min="11" max="12" width="18.28515625" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="17" width="16.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,16 +529,19 @@
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>9</v>
@@ -571,33 +577,37 @@
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\Libros Compras y Ventas\XXXXXX - 9\2022\09\</v>
       </c>
       <c r="M2" s="4" t="str">
-        <f t="shared" ref="M2:M33" si="1">TEXT(N2+30,"mm/aaaa")</f>
-        <v>10/2022</v>
+        <f>TEXT(MONTH(E2),"00")&amp;"/"&amp;YEAR(E2)</f>
+        <v>09/2022</v>
       </c>
       <c r="N2" s="2" t="str">
-        <f t="shared" ref="N2:N33" si="2">UPPER(LEFT(TEXT(E2,"MMMM AAAA"),1))&amp;MID(TEXT(E2,"MMMM AAAA"),2,30)</f>
+        <f>PROPER(TEXT(E2,"mmmm"))&amp;" "&amp;YEAR(E2)</f>
         <v>Septiembre 2022</v>
       </c>
       <c r="O2" s="2" t="str">
-        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",TEXT(N2,"AAAAMM")," - ",B2)</f>
+        <f>YEAR(E2)&amp;TEXT(MONTH(E2),"00")</f>
+        <v>202209</v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",O2," - ",B2)</f>
         <v>9 - 20000000009 - LIV - 202209 - XXXXXX - 9</v>
       </c>
-      <c r="P2" s="2" t="str">
-        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",TEXT(N2,"AAAAMM")," - ",B2)</f>
+      <c r="Q2" s="2" t="str">
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",O2," - ",B2)</f>
         <v>9 - 20000000009 - LIC - 202209 - XXXXXX - 9</v>
       </c>
-      <c r="Q2" s="4">
-        <f t="shared" ref="Q2:Q33" si="3">ROW(A2)</f>
+      <c r="R2" s="4">
+        <f t="shared" ref="R2:R33" si="1">ROW(A2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="4">"XXXXXX - "&amp;A3</f>
+        <f t="shared" ref="B3:B66" si="2">"XXXXXX - "&amp;A3</f>
         <v>XXXXXX - 9</v>
       </c>
       <c r="C3">
@@ -617,37 +627,41 @@
         <v>16</v>
       </c>
       <c r="L3" s="4" t="str">
-        <f t="shared" ref="L3:L66" si="5">K3&amp;"\Libros Compras y Ventas\"&amp;B3&amp;"\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\"</f>
+        <f t="shared" ref="L3:L66" si="3">K3&amp;"\Libros Compras y Ventas\"&amp;B3&amp;"\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\"</f>
         <v>\Libros Compras y Ventas\XXXXXX - 9\2022\09\</v>
       </c>
       <c r="M3" s="4" t="str">
+        <f>TEXT(MONTH(E3),"00")&amp;"/"&amp;YEAR(E3)</f>
+        <v>09/2022</v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <f t="shared" ref="N3:N66" si="4">PROPER(TEXT(E3,"mmmm"))&amp;" "&amp;YEAR(E3)</f>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f t="shared" ref="O3:O66" si="5">YEAR(E3)&amp;TEXT(MONTH(E3),"00")</f>
+        <v>202209</v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f t="shared" ref="P3:P66" si="6">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",O3," - ",B3)</f>
+        <v>9 - 20000000009 - LIV - 202209 - XXXXXX - 9</v>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f t="shared" ref="Q3:Q66" si="7">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",O3," - ",B3)</f>
+        <v>9 - 20000000009 - LIC - 202209 - XXXXXX - 9</v>
+      </c>
+      <c r="R3" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N3" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O3" s="2" t="str">
-        <f t="shared" ref="O3:O66" si="6">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",TEXT(N3,"AAAAMM")," - ",B3)</f>
-        <v>9 - 20000000009 - LIV - 202209 - XXXXXX - 9</v>
-      </c>
-      <c r="P3" s="2" t="str">
-        <f t="shared" ref="P3:P66" si="7">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",TEXT(N3,"AAAAMM")," - ",B3)</f>
-        <v>9 - 20000000009 - LIC - 202209 - XXXXXX - 9</v>
-      </c>
-      <c r="Q3" s="4">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 9</v>
       </c>
       <c r="C4">
@@ -667,37 +681,41 @@
         <v>15</v>
       </c>
       <c r="L4" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 9\2022\09\</v>
       </c>
       <c r="M4" s="4" t="str">
+        <f t="shared" ref="M4:M67" si="8">TEXT(MONTH(E4),"00")&amp;"/"&amp;YEAR(E4)</f>
+        <v>09/2022</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>9 - 20000000009 - LIV - 202209 - XXXXXX - 9</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>9 - 20000000009 - LIC - 202209 - XXXXXX - 9</v>
+      </c>
+      <c r="R4" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N4" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O4" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>9 - 20000000009 - LIV - 202209 - XXXXXX - 9</v>
-      </c>
-      <c r="P4" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>9 - 20000000009 - LIC - 202209 - XXXXXX - 9</v>
-      </c>
-      <c r="Q4" s="4">
-        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C5">
@@ -716,37 +734,41 @@
         <v>15</v>
       </c>
       <c r="L5" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M5" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R5" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N5" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O5" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P5" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q5" s="4">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C6">
@@ -765,37 +787,41 @@
         <v>16</v>
       </c>
       <c r="L6" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M6" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R6" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N6" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O6" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P6" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q6" s="4">
-        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C7">
@@ -814,37 +840,41 @@
         <v>16</v>
       </c>
       <c r="L7" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M7" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R7" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O7" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P7" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q7" s="4">
-        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C8">
@@ -863,37 +893,41 @@
         <v>16</v>
       </c>
       <c r="L8" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M8" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R8" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O8" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P8" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q8" s="4">
-        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C9">
@@ -912,37 +946,41 @@
         <v>16</v>
       </c>
       <c r="L9" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M9" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q9" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R9" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O9" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P9" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q9" s="4">
-        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C10">
@@ -961,37 +999,41 @@
         <v>16</v>
       </c>
       <c r="L10" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M10" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N10" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P10" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q10" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R10" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O10" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P10" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C11">
@@ -1010,37 +1052,41 @@
         <v>15</v>
       </c>
       <c r="L11" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M11" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R11" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O11" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P11" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q11" s="4">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C12">
@@ -1059,37 +1105,41 @@
         <v>16</v>
       </c>
       <c r="L12" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M12" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R12" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O12" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P12" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q12" s="4">
-        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C13">
@@ -1108,37 +1158,41 @@
         <v>16</v>
       </c>
       <c r="L13" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M13" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q13" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R13" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O13" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P13" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q13" s="4">
-        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C14">
@@ -1157,37 +1211,41 @@
         <v>15</v>
       </c>
       <c r="L14" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M14" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q14" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R14" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O14" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P14" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q14" s="4">
-        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C15">
@@ -1209,37 +1267,41 @@
         <v>14</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M15" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q15" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R15" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O15" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P15" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q15" s="4">
-        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C16">
@@ -1258,37 +1320,41 @@
         <v>16</v>
       </c>
       <c r="L16" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M16" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P16" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q16" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R16" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O16" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P16" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q16" s="4">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C17">
@@ -1310,37 +1376,41 @@
         <v>21</v>
       </c>
       <c r="L17" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\</v>
       </c>
       <c r="M17" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>07/2022</v>
+      </c>
+      <c r="N17" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Julio 2022</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202207</v>
+      </c>
+      <c r="P17" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202207 - XXXXXX - 0</v>
+      </c>
+      <c r="Q17" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202207 - XXXXXX - 0</v>
+      </c>
+      <c r="R17" s="4">
         <f t="shared" si="1"/>
-        <v>07/2022</v>
-      </c>
-      <c r="N17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Julio 2022</v>
-      </c>
-      <c r="O17" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202207 - XXXXXX - 0</v>
-      </c>
-      <c r="P17" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202207 - XXXXXX - 0</v>
-      </c>
-      <c r="Q17" s="4">
-        <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C18">
@@ -1359,37 +1429,41 @@
         <v>16</v>
       </c>
       <c r="L18" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M18" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N18" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P18" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q18" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R18" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O18" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P18" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q18" s="4">
-        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C19">
@@ -1408,37 +1482,41 @@
         <v>16</v>
       </c>
       <c r="L19" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M19" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N19" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P19" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q19" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R19" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O19" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P19" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q19" s="4">
-        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C20">
@@ -1460,37 +1538,41 @@
         <v>15</v>
       </c>
       <c r="L20" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\</v>
       </c>
       <c r="M20" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>07/2022</v>
+      </c>
+      <c r="N20" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Julio 2022</v>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202207</v>
+      </c>
+      <c r="P20" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202207 - XXXXXX - 0</v>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202207 - XXXXXX - 0</v>
+      </c>
+      <c r="R20" s="4">
         <f t="shared" si="1"/>
-        <v>07/2022</v>
-      </c>
-      <c r="N20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Julio 2022</v>
-      </c>
-      <c r="O20" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202207 - XXXXXX - 0</v>
-      </c>
-      <c r="P20" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202207 - XXXXXX - 0</v>
-      </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C21">
@@ -1509,37 +1591,41 @@
         <v>16</v>
       </c>
       <c r="L21" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M21" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N21" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O21" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P21" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q21" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R21" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O21" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P21" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q21" s="4">
-        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C22">
@@ -1558,37 +1644,41 @@
         <v>16</v>
       </c>
       <c r="L22" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M22" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N22" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O22" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P22" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q22" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R22" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O22" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P22" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q22" s="4">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C23">
@@ -1607,37 +1697,41 @@
         <v>16</v>
       </c>
       <c r="L23" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M23" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P23" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R23" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O23" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P23" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q23" s="4">
-        <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C24">
@@ -1656,37 +1750,41 @@
         <v>15</v>
       </c>
       <c r="L24" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M24" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N24" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O24" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P24" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R24" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O24" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P24" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q24" s="4">
-        <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C25">
@@ -1705,37 +1803,41 @@
         <v>16</v>
       </c>
       <c r="L25" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M25" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N25" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P25" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q25" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R25" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O25" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P25" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q25" s="4">
-        <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C26">
@@ -1754,37 +1856,41 @@
         <v>15</v>
       </c>
       <c r="L26" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M26" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N26" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O26" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P26" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q26" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R26" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O26" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P26" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q26" s="4">
-        <f t="shared" si="3"/>
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C27">
@@ -1803,37 +1909,41 @@
         <v>16</v>
       </c>
       <c r="L27" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M27" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N27" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O27" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P27" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q27" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R27" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O27" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P27" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q27" s="4">
-        <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C28">
@@ -1852,37 +1962,41 @@
         <v>15</v>
       </c>
       <c r="L28" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M28" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N28" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O28" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P28" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q28" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R28" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O28" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P28" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q28" s="4">
-        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C29">
@@ -1901,37 +2015,41 @@
         <v>16</v>
       </c>
       <c r="L29" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M29" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N29" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O29" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P29" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q29" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R29" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O29" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P29" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q29" s="4">
-        <f t="shared" si="3"/>
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C30">
@@ -1950,37 +2068,41 @@
         <v>16</v>
       </c>
       <c r="L30" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M30" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N30" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O30" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P30" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q30" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R30" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O30" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P30" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q30" s="4">
-        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C31">
@@ -1999,37 +2121,41 @@
         <v>16</v>
       </c>
       <c r="L31" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M31" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N31" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O31" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P31" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q31" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R31" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O31" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P31" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q31" s="4">
-        <f t="shared" si="3"/>
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C32">
@@ -2048,37 +2174,41 @@
         <v>15</v>
       </c>
       <c r="L32" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M32" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N32" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O32" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P32" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q32" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R32" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O32" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P32" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q32" s="4">
-        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C33">
@@ -2097,37 +2227,41 @@
         <v>16</v>
       </c>
       <c r="L33" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M33" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N33" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O33" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P33" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q33" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R33" s="4">
         <f t="shared" si="1"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O33" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P33" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q33" s="4">
-        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A69" si="8">RIGHT(D34,1)</f>
+        <f t="shared" ref="A34:A69" si="9">RIGHT(D34,1)</f>
         <v>0</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C34">
@@ -2146,37 +2280,41 @@
         <v>16</v>
       </c>
       <c r="L34" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M34" s="4" t="str">
-        <f t="shared" ref="M34:M65" si="9">TEXT(N34+30,"mm/aaaa")</f>
-        <v>10/2022</v>
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
       </c>
       <c r="N34" s="2" t="str">
-        <f t="shared" ref="N34:N69" si="10">UPPER(LEFT(TEXT(E34,"MMMM AAAA"),1))&amp;MID(TEXT(E34,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O34" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="5"/>
+        <v>202209</v>
       </c>
       <c r="P34" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q34" s="4">
-        <f t="shared" ref="Q34:Q69" si="11">ROW(A34)</f>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q34" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" ref="R34:R69" si="10">ROW(A34)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C35">
@@ -2195,86 +2333,94 @@
         <v>16</v>
       </c>
       <c r="L35" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M35" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N35" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O35" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P35" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q35" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N35" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXX - 0</v>
+      </c>
+      <c r="C36">
+        <v>20000000009</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="3">
+        <v>44805</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+      </c>
+      <c r="M36" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N36" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O36" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P36" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q36" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R36" s="4">
         <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O35" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P35" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q35" s="4">
-        <f t="shared" si="11"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B36" t="str">
-        <f t="shared" si="4"/>
-        <v>XXXXXX - 0</v>
-      </c>
-      <c r="C36">
-        <v>20000000009</v>
-      </c>
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="3">
-        <v>44805</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
-      </c>
-      <c r="M36" s="4" t="str">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N36" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O36" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P36" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q36" s="4">
-        <f t="shared" si="11"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C37">
@@ -2293,37 +2439,41 @@
         <v>15</v>
       </c>
       <c r="L37" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M37" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N37" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O37" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P37" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q37" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R37" s="4">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N37" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O37" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P37" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q37" s="4">
-        <f t="shared" si="11"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C38">
@@ -2342,86 +2492,94 @@
         <v>15</v>
       </c>
       <c r="L38" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M38" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N38" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O38" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P38" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q38" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N38" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXX - 0</v>
+      </c>
+      <c r="C39">
+        <v>20000000009</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="3">
+        <v>44805</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+      </c>
+      <c r="M39" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N39" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O39" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P39" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q39" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R39" s="4">
         <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O38" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P38" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q38" s="4">
-        <f t="shared" si="11"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="4"/>
-        <v>XXXXXX - 0</v>
-      </c>
-      <c r="C39">
-        <v>20000000009</v>
-      </c>
-      <c r="D39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="3">
-        <v>44805</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" t="s">
-        <v>16</v>
-      </c>
-      <c r="L39" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
-      </c>
-      <c r="M39" s="4" t="str">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N39" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O39" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P39" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q39" s="4">
-        <f t="shared" si="11"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C40">
@@ -2440,37 +2598,41 @@
         <v>16</v>
       </c>
       <c r="L40" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M40" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N40" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O40" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P40" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q40" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R40" s="4">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N40" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O40" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P40" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q40" s="4">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C41">
@@ -2489,37 +2651,41 @@
         <v>16</v>
       </c>
       <c r="L41" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M41" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N41" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O41" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P41" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q41" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R41" s="4">
+        <f t="shared" si="10"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N41" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O41" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P41" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q41" s="4">
-        <f t="shared" si="11"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C42">
@@ -2538,37 +2704,41 @@
         <v>16</v>
       </c>
       <c r="L42" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M42" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N42" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O42" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P42" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q42" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R42" s="4">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N42" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O42" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P42" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q42" s="4">
-        <f t="shared" si="11"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C43">
@@ -2587,86 +2757,94 @@
         <v>15</v>
       </c>
       <c r="L43" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M43" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N43" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O43" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P43" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q43" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R43" s="4">
+        <f t="shared" si="10"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N43" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXX - 0</v>
+      </c>
+      <c r="C44">
+        <v>20000000009</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="3">
+        <v>44805</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+      </c>
+      <c r="M44" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N44" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O44" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P44" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q44" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R44" s="4">
         <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O43" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P43" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q43" s="4">
-        <f t="shared" si="11"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B44" t="str">
-        <f t="shared" si="4"/>
-        <v>XXXXXX - 0</v>
-      </c>
-      <c r="C44">
-        <v>20000000009</v>
-      </c>
-      <c r="D44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="3">
-        <v>44805</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" t="s">
-        <v>16</v>
-      </c>
-      <c r="L44" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
-      </c>
-      <c r="M44" s="4" t="str">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N44" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O44" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P44" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q44" s="4">
-        <f t="shared" si="11"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C45">
@@ -2685,37 +2863,41 @@
         <v>15</v>
       </c>
       <c r="L45" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M45" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N45" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O45" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P45" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q45" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R45" s="4">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N45" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O45" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P45" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q45" s="4">
-        <f t="shared" si="11"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C46">
@@ -2737,37 +2919,41 @@
         <v>15</v>
       </c>
       <c r="L46" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\</v>
       </c>
       <c r="M46" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>07/2022</v>
+      </c>
+      <c r="N46" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Julio 2022</v>
+      </c>
+      <c r="O46" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202207</v>
+      </c>
+      <c r="P46" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202207 - XXXXXX - 0</v>
+      </c>
+      <c r="Q46" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202207 - XXXXXX - 0</v>
+      </c>
+      <c r="R46" s="4">
+        <f t="shared" si="10"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>07/2022</v>
-      </c>
-      <c r="N46" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Julio 2022</v>
-      </c>
-      <c r="O46" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202207 - XXXXXX - 0</v>
-      </c>
-      <c r="P46" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202207 - XXXXXX - 0</v>
-      </c>
-      <c r="Q46" s="4">
-        <f t="shared" si="11"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C47">
@@ -2786,37 +2972,41 @@
         <v>15</v>
       </c>
       <c r="L47" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M47" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N47" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O47" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P47" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q47" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R47" s="4">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N47" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O47" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P47" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q47" s="4">
-        <f t="shared" si="11"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C48">
@@ -2835,37 +3025,41 @@
         <v>15</v>
       </c>
       <c r="L48" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M48" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N48" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O48" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P48" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q48" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R48" s="4">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N48" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O48" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P48" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q48" s="4">
-        <f t="shared" si="11"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C49">
@@ -2887,37 +3081,41 @@
         <v>14</v>
       </c>
       <c r="L49" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M49" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N49" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O49" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P49" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q49" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R49" s="4">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N49" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O49" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P49" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q49" s="4">
-        <f t="shared" si="11"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C50">
@@ -2936,37 +3134,41 @@
         <v>16</v>
       </c>
       <c r="L50" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M50" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N50" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O50" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P50" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q50" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R50" s="4">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N50" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O50" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P50" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q50" s="4">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C51">
@@ -2985,86 +3187,94 @@
         <v>16</v>
       </c>
       <c r="L51" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M51" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N51" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O51" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P51" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q51" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R51" s="4">
+        <f t="shared" si="10"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N51" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXX - 0</v>
+      </c>
+      <c r="C52">
+        <v>20000000009</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="3">
+        <v>44805</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+      </c>
+      <c r="M52" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N52" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O52" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P52" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q52" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R52" s="4">
         <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O51" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P51" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q51" s="4">
-        <f t="shared" si="11"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B52" t="str">
-        <f t="shared" si="4"/>
-        <v>XXXXXX - 0</v>
-      </c>
-      <c r="C52">
-        <v>20000000009</v>
-      </c>
-      <c r="D52" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="3">
-        <v>44805</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" t="s">
-        <v>16</v>
-      </c>
-      <c r="L52" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
-      </c>
-      <c r="M52" s="4" t="str">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N52" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O52" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P52" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q52" s="4">
-        <f t="shared" si="11"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C53">
@@ -3083,86 +3293,94 @@
         <v>16</v>
       </c>
       <c r="L53" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M53" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N53" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O53" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P53" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q53" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R53" s="4">
+        <f t="shared" si="10"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N53" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXX - 0</v>
+      </c>
+      <c r="C54">
+        <v>20000000009</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="3">
+        <v>44805</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+      </c>
+      <c r="M54" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N54" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O54" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P54" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q54" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R54" s="4">
         <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O53" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P53" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q53" s="4">
-        <f t="shared" si="11"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B54" t="str">
-        <f t="shared" si="4"/>
-        <v>XXXXXX - 0</v>
-      </c>
-      <c r="C54">
-        <v>20000000009</v>
-      </c>
-      <c r="D54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="3">
-        <v>44805</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" t="s">
-        <v>16</v>
-      </c>
-      <c r="L54" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
-      </c>
-      <c r="M54" s="4" t="str">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N54" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O54" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P54" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q54" s="4">
-        <f t="shared" si="11"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C55">
@@ -3181,37 +3399,41 @@
         <v>15</v>
       </c>
       <c r="L55" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M55" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N55" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O55" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P55" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q55" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R55" s="4">
+        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N55" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O55" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P55" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q55" s="4">
-        <f t="shared" si="11"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C56">
@@ -3230,37 +3452,41 @@
         <v>15</v>
       </c>
       <c r="L56" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M56" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N56" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O56" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P56" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q56" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R56" s="4">
+        <f t="shared" si="10"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N56" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O56" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P56" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q56" s="4">
-        <f t="shared" si="11"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C57">
@@ -3279,135 +3505,147 @@
         <v>15</v>
       </c>
       <c r="L57" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M57" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N57" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O57" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P57" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q57" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R57" s="4">
+        <f t="shared" si="10"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N57" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXX - 0</v>
+      </c>
+      <c r="C58">
+        <v>20000000009</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="3">
+        <v>44805</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+      </c>
+      <c r="M58" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N58" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O58" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P58" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q58" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R58" s="4">
         <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O57" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P57" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q57" s="4">
-        <f t="shared" si="11"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B58" t="str">
-        <f t="shared" si="4"/>
-        <v>XXXXXX - 0</v>
-      </c>
-      <c r="C58">
-        <v>20000000009</v>
-      </c>
-      <c r="D58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="3">
-        <v>44805</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" t="s">
-        <v>16</v>
-      </c>
-      <c r="L58" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
-      </c>
-      <c r="M58" s="4" t="str">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N58" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXX - 0</v>
+      </c>
+      <c r="C59">
+        <v>20000000009</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="3">
+        <v>44805</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+      </c>
+      <c r="M59" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N59" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O59" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P59" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q59" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R59" s="4">
         <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O58" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P58" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q58" s="4">
-        <f t="shared" si="11"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B59" t="str">
-        <f t="shared" si="4"/>
-        <v>XXXXXX - 0</v>
-      </c>
-      <c r="C59">
-        <v>20000000009</v>
-      </c>
-      <c r="D59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="3">
-        <v>44805</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" t="s">
-        <v>16</v>
-      </c>
-      <c r="L59" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
-      </c>
-      <c r="M59" s="4" t="str">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N59" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O59" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P59" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q59" s="4">
-        <f t="shared" si="11"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C60">
@@ -3426,86 +3664,94 @@
         <v>15</v>
       </c>
       <c r="L60" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M60" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N60" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O60" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P60" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q60" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R60" s="4">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N60" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXX - 0</v>
+      </c>
+      <c r="C61">
+        <v>20000000009</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="3">
+        <v>44805</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+      <c r="L61" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+      </c>
+      <c r="M61" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N61" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O61" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P61" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q61" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R61" s="4">
         <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O60" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P60" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q60" s="4">
-        <f t="shared" si="11"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B61" t="str">
-        <f t="shared" si="4"/>
-        <v>XXXXXX - 0</v>
-      </c>
-      <c r="C61">
-        <v>20000000009</v>
-      </c>
-      <c r="D61" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="3">
-        <v>44805</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" t="s">
-        <v>16</v>
-      </c>
-      <c r="L61" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
-      </c>
-      <c r="M61" s="4" t="str">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N61" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O61" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P61" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q61" s="4">
-        <f t="shared" si="11"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C62">
@@ -3524,86 +3770,94 @@
         <v>15</v>
       </c>
       <c r="L62" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M62" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N62" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O62" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P62" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q62" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R62" s="4">
+        <f t="shared" si="10"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N62" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXX - 0</v>
+      </c>
+      <c r="C63">
+        <v>20000000009</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="3">
+        <v>44805</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+      </c>
+      <c r="M63" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N63" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O63" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P63" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q63" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R63" s="4">
         <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O62" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P62" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q62" s="4">
-        <f t="shared" si="11"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B63" t="str">
-        <f t="shared" si="4"/>
-        <v>XXXXXX - 0</v>
-      </c>
-      <c r="C63">
-        <v>20000000009</v>
-      </c>
-      <c r="D63" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="3">
-        <v>44805</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" t="s">
-        <v>16</v>
-      </c>
-      <c r="L63" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
-      </c>
-      <c r="M63" s="4" t="str">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N63" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O63" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P63" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q63" s="4">
-        <f t="shared" si="11"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C64">
@@ -3622,37 +3876,41 @@
         <v>15</v>
       </c>
       <c r="L64" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M64" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N64" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O64" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P64" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q64" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R64" s="4">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N64" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O64" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P64" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q64" s="4">
-        <f t="shared" si="11"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="str">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C65">
@@ -3671,184 +3929,200 @@
         <v>15</v>
       </c>
       <c r="L65" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
       </c>
       <c r="M65" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N65" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O65" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P65" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q65" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R65" s="4">
+        <f t="shared" si="10"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N65" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXX - 0</v>
+      </c>
+      <c r="C66">
+        <v>20000000009</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="3">
+        <v>44805</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+      </c>
+      <c r="M66" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N66" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O66" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>202209</v>
+      </c>
+      <c r="P66" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q66" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R66" s="4">
         <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O65" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P65" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q65" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B69" si="11">"XXXXXX - "&amp;A67</f>
+        <v>XXXXXX - 0</v>
+      </c>
+      <c r="C67">
+        <v>20000000009</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="3">
+        <v>44805</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" s="4" t="str">
+        <f t="shared" ref="L67:L69" si="12">K67&amp;"\Libros Compras y Ventas\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+      </c>
+      <c r="M67" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N67" s="2" t="str">
+        <f t="shared" ref="N67:N69" si="13">PROPER(TEXT(E67,"mmmm"))&amp;" "&amp;YEAR(E67)</f>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O67" s="2" t="str">
+        <f t="shared" ref="O67:O69" si="14">YEAR(E67)&amp;TEXT(MONTH(E67),"00")</f>
+        <v>202209</v>
+      </c>
+      <c r="P67" s="2" t="str">
+        <f t="shared" ref="P67:P69" si="15">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIV - ",O67," - ",B67)</f>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q67" s="2" t="str">
+        <f t="shared" ref="Q67:Q69" si="16">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIC - ",O67," - ",B67)</f>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R67" s="4">
+        <f t="shared" si="10"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="B68" t="str">
         <f t="shared" si="11"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B66" t="str">
-        <f t="shared" si="4"/>
-        <v>XXXXXX - 0</v>
-      </c>
-      <c r="C66">
-        <v>20000000009</v>
-      </c>
-      <c r="D66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="3">
-        <v>44805</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66" t="s">
-        <v>16</v>
-      </c>
-      <c r="L66" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
-      </c>
-      <c r="M66" s="4" t="str">
-        <f t="shared" ref="M66:M69" si="12">TEXT(N66+30,"mm/aaaa")</f>
-        <v>10/2022</v>
-      </c>
-      <c r="N66" s="2" t="str">
+        <v>XXXXXX - 0</v>
+      </c>
+      <c r="C68">
+        <v>20000000009</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="3">
+        <v>44805</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+      </c>
+      <c r="M68" s="4" t="str">
+        <f t="shared" ref="M68:M69" si="17">TEXT(MONTH(E68),"00")&amp;"/"&amp;YEAR(E68)</f>
+        <v>09/2022</v>
+      </c>
+      <c r="N68" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O68" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202209</v>
+      </c>
+      <c r="P68" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q68" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R68" s="4">
         <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O66" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P66" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q66" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="B69" t="str">
         <f t="shared" si="11"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B67" t="str">
-        <f t="shared" ref="B67:B69" si="13">"XXXXXX - "&amp;A67</f>
-        <v>XXXXXX - 0</v>
-      </c>
-      <c r="C67">
-        <v>20000000009</v>
-      </c>
-      <c r="D67" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="3">
-        <v>44805</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I67" t="s">
-        <v>16</v>
-      </c>
-      <c r="L67" s="4" t="str">
-        <f t="shared" ref="L67:L69" si="14">K67&amp;"\Libros Compras y Ventas\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
-      </c>
-      <c r="M67" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N67" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O67" s="2" t="str">
-        <f t="shared" ref="O67:O69" si="15">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIV - ",TEXT(N67,"AAAAMM")," - ",B67)</f>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P67" s="2" t="str">
-        <f t="shared" ref="P67:P69" si="16">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIC - ",TEXT(N67,"AAAAMM")," - ",B67)</f>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q67" s="4">
-        <f t="shared" si="11"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B68" t="str">
-        <f t="shared" si="13"/>
-        <v>XXXXXX - 0</v>
-      </c>
-      <c r="C68">
-        <v>20000000009</v>
-      </c>
-      <c r="D68" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="3">
-        <v>44805</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" t="s">
-        <v>16</v>
-      </c>
-      <c r="L68" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
-      </c>
-      <c r="M68" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N68" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O68" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P68" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q68" s="4">
-        <f t="shared" si="11"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="B69" t="str">
-        <f t="shared" si="13"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C69">
@@ -3867,33 +4141,37 @@
         <v>16</v>
       </c>
       <c r="L69" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+      </c>
+      <c r="M69" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N69" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O69" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
-      </c>
-      <c r="M69" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>10/2022</v>
-      </c>
-      <c r="N69" s="2" t="str">
+        <v>202209</v>
+      </c>
+      <c r="P69" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q69" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R69" s="4">
         <f t="shared" si="10"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O69" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="P69" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q69" s="4">
-        <f t="shared" si="11"/>
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q69">
+  <autoFilter ref="A1:R69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
     <sortCondition ref="B2:B69"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
